--- a/Documentation/TimeSheets/TimeReport_FernandoAmado.xlsx
+++ b/Documentation/TimeSheets/TimeReport_FernandoAmado.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eudeu\CpE_Capstone\Group_Project\plant-partner\Documentation\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eudeu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE4E95F-4A43-45E3-B7F2-BF2ED372B1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484F26CB-D577-4526-921A-9A3021DEFE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Name:</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>Investigating various similar IoT projects and Modules. Informs Bill of Materials, bottlenecks, constraints and technology we might not have initially considered.</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Worked with group to configure environments for embedded development, build test circuit for experiment with microcontroller, and test adc example with test circuit.</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>Debugged personal environment to continue work in github integrated workflow. In the meantime helped set up test circuits and microcontroller experiments.</t>
   </si>
 </sst>
 </file>
@@ -655,7 +667,7 @@
   <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,7 +692,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>0.6000000000000002</v>
+        <v>1.0097222222222224</v>
       </c>
       <c r="F1" s="17"/>
     </row>
@@ -737,11 +749,11 @@
         <v>0.625</v>
       </c>
       <c r="D5" s="9">
-        <v>0.89930555555555558</v>
+        <v>0.81597222222222221</v>
       </c>
       <c r="E5" s="10">
         <f t="shared" ref="E5:E68" si="0">D5-C5</f>
-        <v>0.27430555555555558</v>
+        <v>0.19097222222222221</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>14</v>
@@ -811,26 +823,46 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="7">
+        <v>45954</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="E9" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="15"/>
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="A10" s="7">
+        <v>45955</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="E10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="15"/>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
